--- a/r4-core-13-rebase/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-13-rebase/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:29:57+00:00</t>
+    <t>2021-12-16T14:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-13-rebase/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-13-rebase/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:42:22+00:00</t>
+    <t>2021-12-16T14:46:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
